--- a/data/final_ACE.xlsx
+++ b/data/final_ACE.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['United Kingdom', 'Australia', 'Netherlands', 'United States', 'China']</t>
+          <t>['Netherlands', 'United Kingdom', 'United States', 'Australia', 'China']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nutrition and industrial lifestock alternatives</t>
+          <t>nutrition and industrial livestock alternatives</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Thailand', 'Sri Lanka', 'United States', 'Vietnam']</t>
+          <t>['Vietnam', 'Sri Lanka', 'Thailand', 'United States']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['China', 'United States', 'Brazil']</t>
+          <t>['United States', 'Brazil', 'China']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Philippines', 'China', 'India', 'United States']</t>
+          <t>['United States', 'India', 'Philippines', 'China']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['Canada', 'India', 'Brazil', 'Mexico', 'United States']</t>
+          <t>['Brazil', 'Canada', 'United States', 'Mexico', 'India']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nutrition and industrial lifestock alternatives</t>
+          <t>nutrition and industrial livestock alternatives</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1038,12 +1038,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['India', 'Vietnam', 'United Kingdom']</t>
+          <t>['United Kingdom', 'Vietnam', 'India']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Europe', 'Asia']</t>
+          <t>['Asia', 'Europe']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['Austria', 'Indonesia', 'Argentina', 'Colombia', 'Uruguay', 'Brazil', 'Peru', 'Chile', 'Thailand', 'Ecuador']</t>
+          <t>['Uruguay', 'Brazil', 'Thailand', 'Peru', 'Indonesia', 'Ecuador', 'Chile', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nutrition and industrial lifestock alternatives</t>
+          <t>nutrition and industrial livestock alternatives</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan', 'Thailand', 'United Kingdom', 'Indonesia', 'India', 'Brazil', 'Singapore', 'Israel', 'South Korea', 'United States', 'Malaysia']</t>
+          <t>['Brazil', 'Malaysia', 'South Korea', 'United Kingdom', 'Thailand', 'United States', 'Indonesia', 'Belgium', 'Singapore', 'Japan', 'India', 'Israel']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['Mexico', 'United States', 'Japan', 'United Kingdom']</t>
+          <t>['United Kingdom', 'Mexico', 'United States', 'Japan']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
